--- a/src/test/resource/testdata/register.xlsx
+++ b/src/test/resource/testdata/register.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8adac69deffeda1f/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6ABA0CD9-EA8D-4763-81CB-D4C87A224D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{6ABA0CD9-EA8D-4763-81CB-D4C87A224D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D5BB3FF-C674-485E-9C57-B9374457BF7F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{770D0979-8540-4AEE-A4D3-6F27D0CC896D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>firstname</t>
   </si>
@@ -42,9 +42,6 @@
     <t>lastname</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
     <t>phone</t>
   </si>
   <si>
@@ -54,9 +51,6 @@
     <t>subscribe</t>
   </si>
   <si>
-    <t>Riyatota1@gmail.com</t>
-  </si>
-  <si>
     <t>riya@123</t>
   </si>
   <si>
@@ -79,12 +73,6 @@
   </si>
   <si>
     <t>automation3</t>
-  </si>
-  <si>
-    <t>Riyatota2@gmail.com</t>
-  </si>
-  <si>
-    <t>Riyatota3@gmail.com</t>
   </si>
   <si>
     <t>riya@124</t>
@@ -163,6 +151,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -462,23 +454,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AABD6C6D-D70D-43C5-8015-41F887409BB7}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.44140625" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="2" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -494,82 +484,66 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>5682459810</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>5682459811</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C4">
+        <v>5682459812</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
         <v>6</v>
-      </c>
-      <c r="D2">
-        <v>5682459810</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3">
-        <v>5682459811</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4">
-        <v>5682459812</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{40196459-2B0B-484C-8353-E35DD778EDC0}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{85495368-EB95-4A0D-BA96-951384370685}"/>
-    <hyperlink ref="C3:C4" r:id="rId3" display="Riyatota1@gmail.com" xr:uid="{C1997FE0-32A7-4B19-9B49-9FC9D7DFB7D3}"/>
-    <hyperlink ref="C3" r:id="rId4" xr:uid="{7FEBD975-AAE0-4847-AD38-911E4ACB238A}"/>
-    <hyperlink ref="C4" r:id="rId5" xr:uid="{F54C2ABD-84D0-4F53-B361-447F12371F25}"/>
-    <hyperlink ref="E3:E4" r:id="rId6" display="riya@123" xr:uid="{68B73C3B-3B0E-4533-9822-7D6D2DCDDE7F}"/>
-    <hyperlink ref="E3" r:id="rId7" xr:uid="{C136A5AF-BCFF-45D0-9801-837C911B834D}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{85495368-EB95-4A0D-BA96-951384370685}"/>
+    <hyperlink ref="D3:D4" r:id="rId2" display="riya@123" xr:uid="{68B73C3B-3B0E-4533-9822-7D6D2DCDDE7F}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{C136A5AF-BCFF-45D0-9801-837C911B834D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/src/test/resource/testdata/register.xlsx
+++ b/src/test/resource/testdata/register.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8adac69deffeda1f/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\POMSelenium\src\test\resource\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{6ABA0CD9-EA8D-4763-81CB-D4C87A224D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D5BB3FF-C674-485E-9C57-B9374457BF7F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0E19CE-2E58-43CC-AD22-F84719CC3B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{770D0979-8540-4AEE-A4D3-6F27D0CC896D}"/>
   </bookViews>
@@ -151,10 +151,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -457,7 +453,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -468,7 +464,7 @@
     <col min="5" max="5" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
